--- a/data/trans_dic/P29A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Habitat-trans_dic.xlsx
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,08; 94,99</t>
+          <t>75,35; 94,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,14; 100,0</t>
+          <t>77,46; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,58; 91,12</t>
+          <t>64,69; 90,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,94; 100,0</t>
+          <t>93,56; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,69; 91,28</t>
+          <t>76,93; 91,6</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,38; 99,04</t>
+          <t>95,22; 98,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,28; 93,42</t>
+          <t>86,28; 93,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,86; 99,32</t>
+          <t>94,19; 99,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,06; 82,27</t>
+          <t>71,8; 82,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,83; 98,71</t>
+          <t>95,81; 98,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,82; 88,53</t>
+          <t>82,62; 88,38</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,24; 99,29</t>
+          <t>97,23; 99,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,55; 84,19</t>
+          <t>56,94; 83,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,98; 97,72</t>
+          <t>92,47; 97,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,4; 67,61</t>
+          <t>57,43; 66,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,29; 98,48</t>
+          <t>96,25; 98,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,24; 76,32</t>
+          <t>59,86; 76,33</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,49; 99,75</t>
+          <t>97,46; 99,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,95; 86,27</t>
+          <t>76,66; 85,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,65; 99,12</t>
+          <t>94,26; 98,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>64,8; 90,42</t>
+          <t>65,36; 90,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,24; 99,2</t>
+          <t>97,18; 99,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,68; 88,11</t>
+          <t>74,44; 86,84</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,91; 99,68</t>
+          <t>97,94; 99,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,04; 85,06</t>
+          <t>77,82; 84,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,49; 99,43</t>
+          <t>96,54; 99,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,21; 73,15</t>
+          <t>61,53; 74,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,81; 99,35</t>
+          <t>97,84; 99,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,15; 79,17</t>
+          <t>71,57; 78,97</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,12; 99,19</t>
+          <t>98,1; 99,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>73,73; 84,4</t>
+          <t>72,87; 84,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,11</t>
+          <t>96,09; 98,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>67,13; 77,35</t>
+          <t>66,99; 77,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,62; 98,55</t>
+          <t>97,56; 98,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,05; 79,52</t>
+          <t>72,78; 79,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P29A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Habitat-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,46; 100,0</t>
+          <t>74,82; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,56; 100,0</t>
+          <t>91,96; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,22; 98,94</t>
+          <t>95,44; 99,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94,19; 99,34</t>
+          <t>93,73; 99,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,81; 98,7</t>
+          <t>95,92; 98,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,23; 99,27</t>
+          <t>97,23; 99,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,47; 97,68</t>
+          <t>93,21; 97,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,25; 98,48</t>
+          <t>96,26; 98,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,46; 99,74</t>
+          <t>97,53; 99,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,26; 98,72</t>
+          <t>94,68; 99,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,18; 99,21</t>
+          <t>97,18; 99,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,94; 99,67</t>
+          <t>97,91; 99,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,54; 99,4</t>
+          <t>96,75; 99,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,36</t>
+          <t>97,9; 99,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,16</t>
+          <t>98,13; 99,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,09; 98,02</t>
+          <t>96,13; 98,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,56; 98,61</t>
+          <t>97,58; 98,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_dic/P29A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75,35; 94,17</t>
+          <t>76,08; 94,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,82; 100,0</t>
+          <t>76,14; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,69; 90,35</t>
+          <t>63,58; 91,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,96; 100,0</t>
+          <t>91,94; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,93; 91,6</t>
+          <t>76,69; 91,28</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,44; 99,03</t>
+          <t>95,38; 99,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,28; 93,4</t>
+          <t>86,28; 93,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,73; 99,33</t>
+          <t>93,86; 99,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>71,8; 82,01</t>
+          <t>72,06; 82,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,92; 98,74</t>
+          <t>95,83; 98,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,62; 88,38</t>
+          <t>82,82; 88,53</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,23; 99,42</t>
+          <t>97,24; 99,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,94; 83,9</t>
+          <t>56,55; 84,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,21; 97,81</t>
+          <t>92,98; 97,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,43; 66,89</t>
+          <t>57,4; 67,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,26; 98,43</t>
+          <t>96,29; 98,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,86; 76,33</t>
+          <t>58,24; 76,32</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,74</t>
+          <t>97,49; 99,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,66; 85,91</t>
+          <t>76,95; 86,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,68; 99,09</t>
+          <t>94,65; 99,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>65,36; 90,96</t>
+          <t>64,8; 90,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,18; 99,22</t>
+          <t>97,24; 99,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,44; 86,84</t>
+          <t>74,68; 88,11</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,91; 99,69</t>
+          <t>97,91; 99,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,82; 84,95</t>
+          <t>78,04; 85,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,75; 99,4</t>
+          <t>96,49; 99,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,53; 74,0</t>
+          <t>61,21; 73,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,9; 99,41</t>
+          <t>97,81; 99,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,57; 78,97</t>
+          <t>72,15; 79,17</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,21</t>
+          <t>98,12; 99,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,87; 84,46</t>
+          <t>73,73; 84,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,13; 98,1</t>
+          <t>95,93; 98,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>66,99; 77,64</t>
+          <t>67,13; 77,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,58; 98,61</t>
+          <t>97,62; 98,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>72,78; 79,5</t>
+          <t>73,05; 79,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P29A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Habitat-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>85,34%</t>
+          <t>86,24%</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,64; 100</t>
+          <t>96,3; 99,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,08; 94,99</t>
+          <t>86,93; 93,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,14; 100,0</t>
+          <t>92,67; 98,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,58; 91,12</t>
+          <t>73,35; 83,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,94; 100,0</t>
+          <t>96,13; 98,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,69; 91,28</t>
+          <t>83,42; 88,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>58,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>59,69%</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,38; 99,04</t>
+          <t>97,24; 99,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,28; 93,42</t>
+          <t>25,4; 84,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,86; 99,32</t>
+          <t>92,98; 97,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,06; 82,27</t>
+          <t>58,08; 68,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,83; 98,71</t>
+          <t>96,29; 98,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,82; 88,53</t>
+          <t>25,55; 77,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76,13%</t>
+          <t>82,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>81,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>81,61%</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,24; 99,29</t>
+          <t>97,49; 99,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,55; 84,19</t>
+          <t>77,36; 86,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,98; 97,72</t>
+          <t>94,65; 99,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,4; 67,61</t>
+          <t>63,64; 94,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,29; 98,48</t>
+          <t>97,24; 99,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,24; 76,32</t>
+          <t>75,08; 91,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>76,53%</t>
+          <t>61,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,29%</t>
+          <t>72,4%</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,49; 99,75</t>
+          <t>97,91; 99,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,95; 86,27</t>
+          <t>78,07; 85,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,65; 99,12</t>
+          <t>96,49; 99,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>64,8; 90,42</t>
+          <t>35,19; 72,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,24; 99,2</t>
+          <t>97,81; 99,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,68; 88,11</t>
+          <t>55,53; 78,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>68,83%</t>
+          <t>70,4%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>72,79%</t>
         </is>
       </c>
     </row>
@@ -959,124 +959,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,91; 99,68</t>
+          <t>98,12; 99,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,04; 85,06</t>
+          <t>50,42; 84,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,49; 99,43</t>
+          <t>95,93; 98,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,21; 73,15</t>
+          <t>61,7; 81,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,81; 99,35</t>
+          <t>97,62; 98,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,15; 79,17</t>
+          <t>56,85; 79,54</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>98,71%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>81,54%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>97,17%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>70,76%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>98,15%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>77,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>98,12; 99,19</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>73,73; 84,4</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>95,93; 98,11</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>67,13; 77,35</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>97,62; 98,55</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>73,05; 79,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1086,7 +1006,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P29A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +524,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +545,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>78,47%</t>
+          <t>52,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,24%</t>
+          <t>21,47%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23,66%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42,22%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39,01%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43,11%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37,68%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,3; 99,23</t>
+          <t>57,36; 64,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,93; 93,42</t>
+          <t>53,43; 61,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,67; 98,74</t>
+          <t>56,88; 64,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73,35; 83,14</t>
+          <t>47,91; 56,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,13; 98,81</t>
+          <t>20,44; 26,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,42; 88,8</t>
+          <t>18,54; 24,83</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23,25; 29,56</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20,93; 26,51</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39,65; 44,71</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36,41; 41,87</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>40,51; 45,81</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>35,04; 40,45</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>58,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,1%</t>
+          <t>40,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,69%</t>
+          <t>24,56%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28,69%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39,67%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>31,58%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,24; 99,29</t>
+          <t>55,23; 61,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,4; 84,71</t>
+          <t>51,94; 58,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,98; 97,72</t>
+          <t>50,77; 57,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,08; 68,28</t>
+          <t>22,14; 51,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,29; 98,48</t>
+          <t>23,45; 29,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,55; 77,18</t>
+          <t>21,88; 27,51</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25,9; 31,76</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18,86; 23,73</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39,76; 44,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37,5; 42,01</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38,8; 43,4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 36,24</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>45,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>56,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>54,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>46,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,61%</t>
+          <t>23,65%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28,02%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40,39%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31,63%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39,42%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41,06%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43,02%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,49; 99,75</t>
+          <t>42,16; 49,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,36; 86,8</t>
+          <t>52,37; 59,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,65; 99,12</t>
+          <t>50,68; 57,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,64; 94,26</t>
+          <t>42,3; 51,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,24; 99,2</t>
+          <t>15,19; 20,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,08; 91,74</t>
+          <t>20,12; 26,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24,83; 31,39</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22,39; 72,23</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28,99; 33,83</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>36,52; 42,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>38,36; 43,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>33,77; 66,86</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>53,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>59,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>61,43%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,4%</t>
+          <t>31,06%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37,81%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40,14%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42,94%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>48,2%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36,45%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,91; 99,68</t>
+          <t>50,47; 56,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,07; 85,32</t>
+          <t>53,0; 59,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,49; 99,43</t>
+          <t>56,73; 63,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,19; 72,8</t>
+          <t>44,01; 51,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,81; 99,35</t>
+          <t>25,15; 30,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,53; 78,71</t>
+          <t>28,21; 34,23</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34,51; 40,98</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20,71; 29,34</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>38,05; 42,28</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40,71; 45,3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>45,89; 50,62</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>31,86; 38,99</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>25,67%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30,73%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39,44%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>43,54%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,71%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98,12; 99,19</t>
+          <t>53,24; 56,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,42; 84,7</t>
+          <t>54,36; 58,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,11</t>
+          <t>55,41; 58,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,7; 81,21</t>
+          <t>36,17; 49,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,62; 98,55</t>
+          <t>23,05; 25,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,85; 79,54</t>
+          <t>24,28; 27,35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 32,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23,31; 40,2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38,24; 40,67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>39,29; 41,71</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>42,34; 44,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33,43; 42,68</t>
         </is>
       </c>
     </row>
@@ -998,14 +1354,1222 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumió bebidas alcohólicas en las últimas dos semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>417109</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>382254</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>390615</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>333157</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>162430</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>148363</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>174631</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>159637</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>579539</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>530617</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>565246</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>492794</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>393631; 443647</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>357570; 408530</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>365746; 413927</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>303361; 360260</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>140276; 183809</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>128141; 171625</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>155357; 197476</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>141184; 178881</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>544229; 613705</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>495316; 569616</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>531199; 600672</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>458327; 529039</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>555693</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>538909</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>536326</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>476919</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>250453</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>247323</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>293422</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>201444</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>806146</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>786232</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>829748</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>678363</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>524132; 586073</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>506294; 572616</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>503255; 570152</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>263859; 614494</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>225266; 278791</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>220319; 277019</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>264875; 324861</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>180423; 226954</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>759294; 848103</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>743148; 832629</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>781522; 874128</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>461103; 778568</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>303976</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>402392</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>405380</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>326527</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>121855</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>178894</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>216168</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>376097</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>425831</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>581286</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>621548</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>702624</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>281049; 332628</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>376149; 429222</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>376273; 430358</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>297067; 359436</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>103258; 141259</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>152242; 203127</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>191537; 242125</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>208501; 672492</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>390290; 455444</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>538577; 622236</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>580720; 661406</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>551567; 1092162</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>499317</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>514273</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>545684</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>443700</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>289118</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>320324</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>387766</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>291013</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>788435</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>834597</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>933450</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>734712</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>469751; 528141</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>483570; 544252</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>516787; 576746</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>407436; 477578</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>259897; 318518</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>290984; 352991</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>353927; 420280</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>225737; 319803</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>747335; 830574</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>791241; 880568</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>888630; 980301</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>642202; 786020</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2550</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2552</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2803</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2794</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1776095</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1837828</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1878006</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1580302</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>823855</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>894904</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1071986</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1028192</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2599950</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2732732</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2949993</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2608494</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1721081; 1830050</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1779918; 1902363</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1821769; 1933711</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1248887; 1719386</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>774438; 871859</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>846381; 953364</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1019800; 1131476</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>851493; 1468125</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2521204; 2681089</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2656385; 2820098</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2868467; 3039082</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2375497; 3032422</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
